--- a/data/strategic behaviours/Strategic Behaviour 1.xlsx
+++ b/data/strategic behaviours/Strategic Behaviour 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherholland/Documents/A1_Current/PhD/Research Projects/Robots P2/Robots_Analysis_V2/data/strategic behaviours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995C84C-F3B2-3A40-A4CA-E496758EB086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556C62D-8505-AC4D-99BD-0B78921490C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{8C6004B3-D138-4E7D-9EA7-73357B9B3BBA}"/>
+    <workbookView xWindow="11900" yWindow="3140" windowWidth="23260" windowHeight="12580" xr2:uid="{8C6004B3-D138-4E7D-9EA7-73357B9B3BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="119">
   <si>
     <t>participant</t>
   </si>
@@ -260,9 +260,6 @@
     <t>rub?</t>
   </si>
   <si>
-    <t>INC</t>
-  </si>
-  <si>
     <t>rubbing? And switchback</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
   </si>
   <si>
     <t>pushback</t>
-  </si>
-  <si>
-    <t>rubbing, siwthcback</t>
   </si>
   <si>
     <t>swithback</t>
@@ -770,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E40A9E2-7EBA-42A2-B309-865F68F66114}">
-  <dimension ref="A1:F730"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="G406" sqref="G406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8045,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="F394" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -8230,19 +8224,19 @@
         <v>14</v>
       </c>
       <c r="B404">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>0</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -8250,7 +8244,7 @@
         <v>14</v>
       </c>
       <c r="B405">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -8262,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -8270,19 +8264,19 @@
         <v>14</v>
       </c>
       <c r="B406">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -8290,39 +8284,36 @@
         <v>14</v>
       </c>
       <c r="B407">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407">
         <v>1</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B408">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408">
         <v>1</v>
       </c>
       <c r="E408">
         <v>0</v>
-      </c>
-      <c r="F408" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -8330,16 +8321,19 @@
         <v>15</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E409">
         <v>0</v>
+      </c>
+      <c r="F409" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -8347,19 +8341,16 @@
         <v>15</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410">
         <v>0</v>
-      </c>
-      <c r="F410" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -8367,16 +8358,19 @@
         <v>15</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F411" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -8384,7 +8378,7 @@
         <v>15</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -8396,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="F412" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -8404,19 +8398,16 @@
         <v>15</v>
       </c>
       <c r="B413">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413">
         <v>0</v>
       </c>
       <c r="E413">
-        <v>1</v>
-      </c>
-      <c r="F413" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -8424,13 +8415,13 @@
         <v>15</v>
       </c>
       <c r="B414">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -8441,10 +8432,10 @@
         <v>15</v>
       </c>
       <c r="B415">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8458,16 +8449,19 @@
         <v>15</v>
       </c>
       <c r="B416">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F416" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -8475,19 +8469,19 @@
         <v>15</v>
       </c>
       <c r="B417">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -8495,19 +8489,16 @@
         <v>15</v>
       </c>
       <c r="B418">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
         <v>0</v>
-      </c>
-      <c r="F418" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -8515,16 +8506,19 @@
         <v>15</v>
       </c>
       <c r="B419">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D419">
         <v>1</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F419" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -8532,19 +8526,19 @@
         <v>15</v>
       </c>
       <c r="B420">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -8552,19 +8546,19 @@
         <v>15</v>
       </c>
       <c r="B421">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F421" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -8572,19 +8566,16 @@
         <v>15</v>
       </c>
       <c r="B422">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
-      </c>
-      <c r="F422" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -8592,10 +8583,10 @@
         <v>15</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -8609,16 +8600,19 @@
         <v>15</v>
       </c>
       <c r="B424">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F424" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -8626,19 +8620,16 @@
         <v>15</v>
       </c>
       <c r="B425">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
-      </c>
-      <c r="F425" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -8646,10 +8637,10 @@
         <v>15</v>
       </c>
       <c r="B426">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -8663,16 +8654,19 @@
         <v>15</v>
       </c>
       <c r="B427">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E427">
         <v>0</v>
+      </c>
+      <c r="F427" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -8680,19 +8674,16 @@
         <v>15</v>
       </c>
       <c r="B428">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428">
         <v>0</v>
-      </c>
-      <c r="F428" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -8700,16 +8691,19 @@
         <v>15</v>
       </c>
       <c r="B429">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E429">
         <v>0</v>
+      </c>
+      <c r="F429" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -8717,19 +8711,16 @@
         <v>15</v>
       </c>
       <c r="B430">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E430">
         <v>0</v>
-      </c>
-      <c r="F430" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -8737,16 +8728,19 @@
         <v>15</v>
       </c>
       <c r="B431">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E431">
         <v>0</v>
+      </c>
+      <c r="F431" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -8754,19 +8748,19 @@
         <v>15</v>
       </c>
       <c r="B432">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -8774,19 +8768,16 @@
         <v>15</v>
       </c>
       <c r="B433">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433">
-        <v>1</v>
-      </c>
-      <c r="F433" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -8794,7 +8785,7 @@
         <v>15</v>
       </c>
       <c r="B434">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -8804,6 +8795,9 @@
       </c>
       <c r="E434">
         <v>0</v>
+      </c>
+      <c r="F434" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -8811,19 +8805,19 @@
         <v>15</v>
       </c>
       <c r="B435">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
       <c r="D435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E435">
         <v>0</v>
       </c>
       <c r="F435" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -8831,16 +8825,16 @@
         <v>15</v>
       </c>
       <c r="B436">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F436" t="s">
         <v>83</v>
@@ -8851,13 +8845,13 @@
         <v>15</v>
       </c>
       <c r="B437">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -8868,22 +8862,22 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B438">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438">
         <v>1</v>
       </c>
       <c r="F438" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -8891,19 +8885,19 @@
         <v>16</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F439" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -8911,19 +8905,16 @@
         <v>16</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440">
         <v>0</v>
-      </c>
-      <c r="F440" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -8931,10 +8922,10 @@
         <v>16</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -8948,10 +8939,10 @@
         <v>16</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -8965,16 +8956,19 @@
         <v>16</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443">
         <v>0</v>
+      </c>
+      <c r="F443" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -8982,19 +8976,19 @@
         <v>16</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F444" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -9002,7 +8996,7 @@
         <v>16</v>
       </c>
       <c r="B445">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -9022,19 +9016,19 @@
         <v>16</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F446" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -9042,19 +9036,19 @@
         <v>16</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -9062,19 +9056,16 @@
         <v>16</v>
       </c>
       <c r="B448">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>1</v>
-      </c>
-      <c r="F448" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -9082,16 +9073,19 @@
         <v>16</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F449" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -9099,19 +9093,19 @@
         <v>16</v>
       </c>
       <c r="B450">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -9119,19 +9113,16 @@
         <v>16</v>
       </c>
       <c r="B451">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E451">
         <v>0</v>
-      </c>
-      <c r="F451" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -9139,19 +9130,16 @@
         <v>16</v>
       </c>
       <c r="B452">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E452">
-        <v>1</v>
-      </c>
-      <c r="F452" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
@@ -9159,16 +9147,19 @@
         <v>16</v>
       </c>
       <c r="B453">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F453" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
@@ -9176,13 +9167,13 @@
         <v>16</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -9193,7 +9184,7 @@
         <v>16</v>
       </c>
       <c r="B455">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -9205,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="F455" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -9213,7 +9204,7 @@
         <v>16</v>
       </c>
       <c r="B456">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -9230,19 +9221,19 @@
         <v>16</v>
       </c>
       <c r="B457">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -9250,16 +9241,19 @@
         <v>16</v>
       </c>
       <c r="B458">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F458" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
@@ -9267,7 +9261,7 @@
         <v>16</v>
       </c>
       <c r="B459">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -9279,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="F459" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
@@ -9287,19 +9281,19 @@
         <v>16</v>
       </c>
       <c r="B460">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E460">
         <v>1</v>
       </c>
       <c r="F460" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
@@ -9307,19 +9301,16 @@
         <v>16</v>
       </c>
       <c r="B461">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C461">
         <v>0</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461">
         <v>0</v>
-      </c>
-      <c r="F461" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
@@ -9327,19 +9318,19 @@
         <v>16</v>
       </c>
       <c r="B462">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
         <v>1</v>
       </c>
       <c r="F462" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
@@ -9347,7 +9338,7 @@
         <v>16</v>
       </c>
       <c r="B463">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -9357,6 +9348,9 @@
       </c>
       <c r="E463">
         <v>0</v>
+      </c>
+      <c r="F463" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -9364,19 +9358,16 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
-      </c>
-      <c r="F464" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
@@ -9384,33 +9375,33 @@
         <v>16</v>
       </c>
       <c r="B465">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D465">
         <v>1</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B466">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -9418,10 +9409,10 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B467">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -9433,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="F467" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -9441,13 +9432,13 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -9458,19 +9449,19 @@
         <v>17</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E469">
         <v>1</v>
       </c>
       <c r="F469" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -9478,13 +9469,13 @@
         <v>17</v>
       </c>
       <c r="B470">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -9495,19 +9486,16 @@
         <v>17</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>1</v>
-      </c>
-      <c r="F471" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -9515,16 +9503,19 @@
         <v>17</v>
       </c>
       <c r="B472">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D472">
         <v>1</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F472" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -9532,16 +9523,19 @@
         <v>17</v>
       </c>
       <c r="B473">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F473" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -9549,19 +9543,16 @@
         <v>17</v>
       </c>
       <c r="B474">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474">
         <v>1</v>
       </c>
       <c r="E474">
-        <v>1</v>
-      </c>
-      <c r="F474" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -9569,19 +9560,19 @@
         <v>17</v>
       </c>
       <c r="B475">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D475">
         <v>0</v>
       </c>
       <c r="E475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F475" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
@@ -9589,16 +9580,19 @@
         <v>17</v>
       </c>
       <c r="B476">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D476">
         <v>1</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F476" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
@@ -9606,19 +9600,19 @@
         <v>17</v>
       </c>
       <c r="B477">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
@@ -9626,19 +9620,16 @@
         <v>17</v>
       </c>
       <c r="B478">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D478">
         <v>1</v>
       </c>
       <c r="E478">
-        <v>1</v>
-      </c>
-      <c r="F478" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
@@ -9646,19 +9637,16 @@
         <v>17</v>
       </c>
       <c r="B479">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
-        <v>1</v>
-      </c>
-      <c r="F479" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
@@ -9666,16 +9654,19 @@
         <v>17</v>
       </c>
       <c r="B480">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480">
         <v>0</v>
+      </c>
+      <c r="F480" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -9683,16 +9674,19 @@
         <v>17</v>
       </c>
       <c r="B481">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F481" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -9700,19 +9694,16 @@
         <v>17</v>
       </c>
       <c r="B482">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
         <v>0</v>
-      </c>
-      <c r="F482" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
@@ -9720,7 +9711,7 @@
         <v>17</v>
       </c>
       <c r="B483">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -9732,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="F483" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
@@ -9740,10 +9731,10 @@
         <v>17</v>
       </c>
       <c r="B484">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -9757,19 +9748,16 @@
         <v>17</v>
       </c>
       <c r="B485">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D485">
         <v>0</v>
       </c>
       <c r="E485">
-        <v>1</v>
-      </c>
-      <c r="F485" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
@@ -9777,13 +9765,13 @@
         <v>17</v>
       </c>
       <c r="B486">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -9794,16 +9782,19 @@
         <v>17</v>
       </c>
       <c r="B487">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E487">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F487" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
@@ -9811,13 +9802,13 @@
         <v>17</v>
       </c>
       <c r="B488">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -9828,19 +9819,16 @@
         <v>17</v>
       </c>
       <c r="B489">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489">
         <v>1</v>
       </c>
       <c r="E489">
-        <v>1</v>
-      </c>
-      <c r="F489" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
@@ -9848,16 +9836,19 @@
         <v>17</v>
       </c>
       <c r="B490">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E490">
         <v>0</v>
+      </c>
+      <c r="F490" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
@@ -9865,16 +9856,19 @@
         <v>17</v>
       </c>
       <c r="B491">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D491">
         <v>1</v>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F491" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
@@ -9882,19 +9876,19 @@
         <v>17</v>
       </c>
       <c r="B492">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D492">
         <v>0</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -9902,19 +9896,16 @@
         <v>17</v>
       </c>
       <c r="B493">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E493">
-        <v>1</v>
-      </c>
-      <c r="F493" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
@@ -9922,19 +9913,16 @@
         <v>17</v>
       </c>
       <c r="B494">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494">
-        <v>1</v>
-      </c>
-      <c r="F494" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
@@ -9942,16 +9930,19 @@
         <v>17</v>
       </c>
       <c r="B495">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D495">
         <v>0</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F495" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
@@ -9959,24 +9950,27 @@
         <v>17</v>
       </c>
       <c r="B496">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D496">
         <v>1</v>
       </c>
       <c r="E496">
         <v>0</v>
+      </c>
+      <c r="F496" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B497">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -9988,27 +9982,24 @@
         <v>1</v>
       </c>
       <c r="F497" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B498">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C498">
         <v>0</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E498">
         <v>0</v>
-      </c>
-      <c r="F498" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
@@ -10016,19 +10007,19 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F499" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
@@ -10036,7 +10027,7 @@
         <v>18</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -10046,6 +10037,9 @@
       </c>
       <c r="E500">
         <v>0</v>
+      </c>
+      <c r="F500" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
@@ -10053,7 +10047,7 @@
         <v>18</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -10063,9 +10057,6 @@
       </c>
       <c r="E501">
         <v>0</v>
-      </c>
-      <c r="F501" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
@@ -10073,19 +10064,16 @@
         <v>18</v>
       </c>
       <c r="B502">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
         <v>0</v>
-      </c>
-      <c r="F502" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
@@ -10093,16 +10081,19 @@
         <v>18</v>
       </c>
       <c r="B503">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F503" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -10110,16 +10101,19 @@
         <v>18</v>
       </c>
       <c r="B504">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
         <v>0</v>
+      </c>
+      <c r="F504" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -10127,19 +10121,16 @@
         <v>18</v>
       </c>
       <c r="B505">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E505">
-        <v>1</v>
-      </c>
-      <c r="F505" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -10147,19 +10138,19 @@
         <v>18</v>
       </c>
       <c r="B506">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F506" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -10167,16 +10158,19 @@
         <v>18</v>
       </c>
       <c r="B507">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F507" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -10184,7 +10178,7 @@
         <v>18</v>
       </c>
       <c r="B508">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -10193,10 +10187,10 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F508" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -10204,19 +10198,16 @@
         <v>18</v>
       </c>
       <c r="B509">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>1</v>
-      </c>
-      <c r="F509" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -10224,19 +10215,19 @@
         <v>18</v>
       </c>
       <c r="B510">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C510">
         <v>1</v>
       </c>
       <c r="D510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F510" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -10244,16 +10235,19 @@
         <v>18</v>
       </c>
       <c r="B511">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C511">
         <v>0</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511">
         <v>0</v>
+      </c>
+      <c r="F511" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -10261,7 +10255,7 @@
         <v>18</v>
       </c>
       <c r="B512">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -10273,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="F512" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -10281,19 +10275,19 @@
         <v>18</v>
       </c>
       <c r="B513">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513">
         <v>0</v>
       </c>
       <c r="F513" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -10301,19 +10295,19 @@
         <v>18</v>
       </c>
       <c r="B514">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C514">
         <v>1</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F514" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -10321,19 +10315,19 @@
         <v>18</v>
       </c>
       <c r="B515">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
         <v>0</v>
       </c>
       <c r="F515" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -10341,19 +10335,16 @@
         <v>18</v>
       </c>
       <c r="B516">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516">
         <v>1</v>
       </c>
       <c r="E516">
         <v>0</v>
-      </c>
-      <c r="F516" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -10361,19 +10352,16 @@
         <v>18</v>
       </c>
       <c r="B517">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517">
         <v>0</v>
-      </c>
-      <c r="F517" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
@@ -10381,16 +10369,19 @@
         <v>18</v>
       </c>
       <c r="B518">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F518" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -10398,16 +10389,19 @@
         <v>18</v>
       </c>
       <c r="B519">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E519">
         <v>0</v>
+      </c>
+      <c r="F519" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -10415,19 +10409,16 @@
         <v>18</v>
       </c>
       <c r="B520">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>1</v>
-      </c>
-      <c r="F520" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -10435,19 +10426,19 @@
         <v>18</v>
       </c>
       <c r="B521">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -10455,10 +10446,10 @@
         <v>18</v>
       </c>
       <c r="B522">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -10472,7 +10463,7 @@
         <v>18</v>
       </c>
       <c r="B523">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -10484,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="F523" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
@@ -10492,13 +10483,13 @@
         <v>18</v>
       </c>
       <c r="B524">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E524">
         <v>0</v>
@@ -10509,19 +10500,19 @@
         <v>18</v>
       </c>
       <c r="B525">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F525" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -10529,13 +10520,13 @@
         <v>18</v>
       </c>
       <c r="B526">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -10543,33 +10534,33 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B527">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F527" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B528">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -10583,19 +10574,19 @@
         <v>19</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D529">
         <v>0</v>
       </c>
       <c r="E529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F529" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -10603,16 +10594,19 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D530">
         <v>1</v>
       </c>
       <c r="E530">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F530" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -10620,19 +10614,16 @@
         <v>19</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E531">
         <v>0</v>
-      </c>
-      <c r="F531" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -10640,19 +10631,19 @@
         <v>19</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C532">
         <v>1</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532">
         <v>1</v>
       </c>
       <c r="F532" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -10660,13 +10651,13 @@
         <v>19</v>
       </c>
       <c r="B533">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C533">
         <v>0</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -10677,19 +10668,19 @@
         <v>19</v>
       </c>
       <c r="B534">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534">
         <v>1</v>
       </c>
       <c r="F534" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -10697,13 +10688,13 @@
         <v>19</v>
       </c>
       <c r="B535">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C535">
         <v>0</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -10714,19 +10705,19 @@
         <v>19</v>
       </c>
       <c r="B536">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F536" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -10734,16 +10725,19 @@
         <v>19</v>
       </c>
       <c r="B537">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F537" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -10751,19 +10745,16 @@
         <v>19</v>
       </c>
       <c r="B538">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538">
         <v>0</v>
-      </c>
-      <c r="F538" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -10771,19 +10762,19 @@
         <v>19</v>
       </c>
       <c r="B539">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C539">
         <v>1</v>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539">
         <v>1</v>
       </c>
       <c r="F539" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -10791,16 +10782,19 @@
         <v>19</v>
       </c>
       <c r="B540">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F540" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -10808,19 +10802,16 @@
         <v>19</v>
       </c>
       <c r="B541">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>1</v>
-      </c>
-      <c r="F541" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -10828,19 +10819,19 @@
         <v>19</v>
       </c>
       <c r="B542">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C542">
         <v>1</v>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542">
         <v>1</v>
       </c>
       <c r="F542" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -10848,7 +10839,7 @@
         <v>19</v>
       </c>
       <c r="B543">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -10865,19 +10856,16 @@
         <v>19</v>
       </c>
       <c r="B544">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D544">
         <v>1</v>
       </c>
       <c r="E544">
-        <v>1</v>
-      </c>
-      <c r="F544" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -10885,13 +10873,13 @@
         <v>19</v>
       </c>
       <c r="B545">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E545">
         <v>0</v>
@@ -10902,13 +10890,13 @@
         <v>19</v>
       </c>
       <c r="B546">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546">
         <v>0</v>
@@ -10919,10 +10907,10 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -10936,13 +10924,13 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E548">
         <v>0</v>
@@ -10953,16 +10941,19 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E549">
         <v>0</v>
+      </c>
+      <c r="F549" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -10970,16 +10961,19 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E550">
         <v>0</v>
+      </c>
+      <c r="F550" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -10987,19 +10981,16 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E551">
         <v>0</v>
-      </c>
-      <c r="F551" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
@@ -11007,27 +10998,27 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F552" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B553">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -11041,22 +11032,22 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B554">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F554" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
@@ -11064,10 +11055,10 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -11081,19 +11072,16 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556">
         <v>0</v>
-      </c>
-      <c r="F556" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.2">
@@ -11101,10 +11089,10 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -11118,16 +11106,19 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E558">
         <v>0</v>
+      </c>
+      <c r="F558" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
@@ -11135,16 +11126,19 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D559">
         <v>1</v>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F559" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
@@ -11152,7 +11146,7 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -11172,19 +11166,16 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D561">
         <v>1</v>
       </c>
       <c r="E561">
-        <v>1</v>
-      </c>
-      <c r="F561" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
@@ -11192,19 +11183,19 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D562">
         <v>0</v>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F562" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
@@ -11212,10 +11203,10 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -11229,19 +11220,16 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E564">
-        <v>1</v>
-      </c>
-      <c r="F564" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.2">
@@ -11249,16 +11237,19 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E565">
         <v>0</v>
+      </c>
+      <c r="F565" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
@@ -11266,16 +11257,19 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.2">
@@ -11283,19 +11277,16 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E567">
         <v>0</v>
-      </c>
-      <c r="F567" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
@@ -11303,19 +11294,16 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>1</v>
-      </c>
-      <c r="F568" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
@@ -11323,7 +11311,7 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -11340,7 +11328,7 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -11350,6 +11338,9 @@
       </c>
       <c r="E570">
         <v>0</v>
+      </c>
+      <c r="F570" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
@@ -11357,10 +11348,10 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -11374,19 +11365,16 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572">
         <v>0</v>
-      </c>
-      <c r="F572" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.2">
@@ -11394,7 +11382,7 @@
         <v>20</v>
       </c>
       <c r="B573">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C573">
         <v>1</v>
@@ -11411,16 +11399,19 @@
         <v>20</v>
       </c>
       <c r="B574">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C574">
         <v>0</v>
       </c>
       <c r="D574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E574">
         <v>0</v>
+      </c>
+      <c r="F574" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.2">
@@ -11428,16 +11419,19 @@
         <v>20</v>
       </c>
       <c r="B575">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C575">
         <v>1</v>
       </c>
       <c r="D575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F575" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
@@ -11445,19 +11439,19 @@
         <v>20</v>
       </c>
       <c r="B576">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C576">
         <v>0</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576">
         <v>0</v>
       </c>
       <c r="F576" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
@@ -11465,53 +11459,47 @@
         <v>20</v>
       </c>
       <c r="B577">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C577">
         <v>1</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577">
-        <v>1</v>
-      </c>
-      <c r="F577" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B578">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D578">
         <v>1</v>
       </c>
       <c r="E578">
         <v>0</v>
-      </c>
-      <c r="F578" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B579">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E579">
         <v>0</v>
@@ -11522,16 +11510,19 @@
         <v>21</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C580">
         <v>1</v>
       </c>
       <c r="D580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E580">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F580" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
@@ -11539,7 +11530,7 @@
         <v>21</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -11549,6 +11540,9 @@
       </c>
       <c r="E581">
         <v>0</v>
+      </c>
+      <c r="F581" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
@@ -11556,19 +11550,16 @@
         <v>21</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582">
-        <v>1</v>
-      </c>
-      <c r="F582" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
@@ -11576,19 +11567,19 @@
         <v>21</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D583">
         <v>0</v>
       </c>
       <c r="E583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F583" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -11596,10 +11587,10 @@
         <v>21</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -11613,19 +11604,19 @@
         <v>21</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C585">
         <v>1</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E585">
         <v>1</v>
       </c>
       <c r="F585" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -11633,16 +11624,19 @@
         <v>21</v>
       </c>
       <c r="B586">
+        <v>9</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
         <v>7</v>
-      </c>
-      <c r="C586">
-        <v>1</v>
-      </c>
-      <c r="D586">
-        <v>1</v>
-      </c>
-      <c r="E586">
-        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
@@ -11650,19 +11644,16 @@
         <v>21</v>
       </c>
       <c r="B587">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E587">
-        <v>1</v>
-      </c>
-      <c r="F587" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -11670,19 +11661,16 @@
         <v>21</v>
       </c>
       <c r="B588">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E588">
-        <v>1</v>
-      </c>
-      <c r="F588" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.2">
@@ -11690,13 +11678,13 @@
         <v>21</v>
       </c>
       <c r="B589">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E589">
         <v>0</v>
@@ -11707,7 +11695,7 @@
         <v>21</v>
       </c>
       <c r="B590">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -11724,13 +11712,13 @@
         <v>21</v>
       </c>
       <c r="B591">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -11741,16 +11729,19 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E592">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F592" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -11758,16 +11749,19 @@
         <v>21</v>
       </c>
       <c r="B593">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D593">
         <v>0</v>
       </c>
       <c r="E593">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F593" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -11775,19 +11769,16 @@
         <v>21</v>
       </c>
       <c r="B594">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D594">
         <v>0</v>
       </c>
       <c r="E594">
-        <v>1</v>
-      </c>
-      <c r="F594" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -11795,19 +11786,16 @@
         <v>21</v>
       </c>
       <c r="B595">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E595">
-        <v>1</v>
-      </c>
-      <c r="F595" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -11815,13 +11803,13 @@
         <v>21</v>
       </c>
       <c r="B596">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E596">
         <v>0</v>
@@ -11832,16 +11820,19 @@
         <v>21</v>
       </c>
       <c r="B597">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C597">
         <v>0</v>
       </c>
       <c r="D597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E597">
         <v>0</v>
+      </c>
+      <c r="F597" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -11849,10 +11840,10 @@
         <v>21</v>
       </c>
       <c r="B598">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -11866,16 +11857,16 @@
         <v>21</v>
       </c>
       <c r="B599">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D599">
         <v>0</v>
       </c>
       <c r="E599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F599" t="s">
         <v>7</v>
@@ -11886,16 +11877,19 @@
         <v>21</v>
       </c>
       <c r="B600">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D600">
         <v>1</v>
       </c>
       <c r="E600">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F600" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.2">
@@ -11903,7 +11897,7 @@
         <v>21</v>
       </c>
       <c r="B601">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -11923,19 +11917,16 @@
         <v>21</v>
       </c>
       <c r="B602">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E602">
-        <v>1</v>
-      </c>
-      <c r="F602" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -11943,19 +11934,16 @@
         <v>21</v>
       </c>
       <c r="B603">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E603">
-        <v>1</v>
-      </c>
-      <c r="F603" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
@@ -11963,13 +11951,13 @@
         <v>21</v>
       </c>
       <c r="B604">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E604">
         <v>0</v>
@@ -11980,7 +11968,7 @@
         <v>21</v>
       </c>
       <c r="B605">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -11997,16 +11985,19 @@
         <v>21</v>
       </c>
       <c r="B606">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C606">
         <v>1</v>
       </c>
       <c r="D606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E606">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
@@ -12014,13 +12005,13 @@
         <v>21</v>
       </c>
       <c r="B607">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C607">
         <v>0</v>
       </c>
       <c r="D607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E607">
         <v>0</v>
@@ -12031,56 +12022,56 @@
         <v>21</v>
       </c>
       <c r="B608">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C608">
         <v>1</v>
       </c>
       <c r="D608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E608">
         <v>1</v>
       </c>
       <c r="F608" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B609">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D609">
         <v>0</v>
       </c>
       <c r="E609">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F609" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B610">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D610">
         <v>1</v>
       </c>
       <c r="E610">
-        <v>1</v>
-      </c>
-      <c r="F610" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
@@ -12088,16 +12079,16 @@
         <v>22</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D611">
         <v>0</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F611" t="s">
         <v>7</v>
@@ -12108,10 +12099,10 @@
         <v>22</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -12125,19 +12116,16 @@
         <v>22</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C613">
         <v>0</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E613">
         <v>0</v>
-      </c>
-      <c r="F613" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -12145,7 +12133,7 @@
         <v>22</v>
       </c>
       <c r="B614">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -12154,7 +12142,10 @@
         <v>1</v>
       </c>
       <c r="E614">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F614" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -12162,16 +12153,19 @@
         <v>22</v>
       </c>
       <c r="B615">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C615">
         <v>0</v>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E615">
         <v>0</v>
+      </c>
+      <c r="F615" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -12179,19 +12173,19 @@
         <v>22</v>
       </c>
       <c r="B616">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C616">
         <v>1</v>
       </c>
       <c r="D616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E616">
         <v>1</v>
       </c>
       <c r="F616" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
@@ -12199,7 +12193,7 @@
         <v>22</v>
       </c>
       <c r="B617">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -12209,9 +12203,6 @@
       </c>
       <c r="E617">
         <v>0</v>
-      </c>
-      <c r="F617" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -12219,19 +12210,16 @@
         <v>22</v>
       </c>
       <c r="B618">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E618">
-        <v>1</v>
-      </c>
-      <c r="F618" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
@@ -12239,16 +12227,19 @@
         <v>22</v>
       </c>
       <c r="B619">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E619">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F619" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
@@ -12256,16 +12247,19 @@
         <v>22</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E620">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F620" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -12273,19 +12267,19 @@
         <v>22</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C621">
         <v>1</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E621">
         <v>1</v>
       </c>
       <c r="F621" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
@@ -12293,19 +12287,16 @@
         <v>22</v>
       </c>
       <c r="B622">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E622">
-        <v>1</v>
-      </c>
-      <c r="F622" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -12313,19 +12304,16 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D623">
         <v>0</v>
       </c>
       <c r="E623">
-        <v>1</v>
-      </c>
-      <c r="F623" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -12333,10 +12321,10 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -12350,13 +12338,13 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C625">
         <v>0</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E625">
         <v>0</v>
@@ -12367,16 +12355,19 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
       <c r="D626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E626">
         <v>0</v>
+      </c>
+      <c r="F626" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
@@ -12384,16 +12375,19 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D627">
         <v>1</v>
       </c>
       <c r="E627">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F627" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
@@ -12401,19 +12395,19 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>0</v>
       </c>
       <c r="E628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F628" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -12421,19 +12415,16 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E629">
-        <v>1</v>
-      </c>
-      <c r="F629" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -12441,19 +12432,16 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E630">
-        <v>1</v>
-      </c>
-      <c r="F630" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
@@ -12461,16 +12449,19 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D631">
         <v>0</v>
       </c>
       <c r="E631">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F631" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
@@ -12478,10 +12469,10 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -12495,19 +12486,16 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D633">
         <v>0</v>
       </c>
       <c r="E633">
-        <v>1</v>
-      </c>
-      <c r="F633" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -12515,10 +12503,10 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D634">
         <v>1</v>
@@ -12532,13 +12520,13 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E635">
         <v>0</v>
@@ -12549,16 +12537,19 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F636" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -12566,10 +12557,10 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -12583,19 +12574,16 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C638">
         <v>1</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E638">
-        <v>1</v>
-      </c>
-      <c r="F638" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -12603,13 +12591,13 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C639">
         <v>0</v>
       </c>
       <c r="D639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E639">
         <v>0</v>
@@ -12620,13 +12608,13 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C640">
         <v>1</v>
       </c>
       <c r="D640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E640">
         <v>0</v>
@@ -12634,16 +12622,16 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B641">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E641">
         <v>0</v>
@@ -12651,19 +12639,22 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B642">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D642">
         <v>0</v>
       </c>
       <c r="E642">
         <v>0</v>
+      </c>
+      <c r="F642" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -12671,16 +12662,19 @@
         <v>23</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E643">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F643" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
@@ -12688,16 +12682,16 @@
         <v>23</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F644" t="s">
         <v>7</v>
@@ -12708,19 +12702,19 @@
         <v>23</v>
       </c>
       <c r="B645">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C645">
         <v>1</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E645">
         <v>1</v>
       </c>
       <c r="F645" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
@@ -12728,16 +12722,16 @@
         <v>23</v>
       </c>
       <c r="B646">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F646" t="s">
         <v>7</v>
@@ -12748,19 +12742,16 @@
         <v>23</v>
       </c>
       <c r="B647">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D647">
         <v>1</v>
       </c>
       <c r="E647">
-        <v>1</v>
-      </c>
-      <c r="F647" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
@@ -12768,16 +12759,16 @@
         <v>23</v>
       </c>
       <c r="B648">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D648">
         <v>0</v>
       </c>
       <c r="E648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F648" t="s">
         <v>7</v>
@@ -12788,10 +12779,10 @@
         <v>23</v>
       </c>
       <c r="B649">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -12805,19 +12796,19 @@
         <v>23</v>
       </c>
       <c r="B650">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D650">
         <v>0</v>
       </c>
       <c r="E650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F650" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
@@ -12825,10 +12816,10 @@
         <v>23</v>
       </c>
       <c r="B651">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -12842,7 +12833,7 @@
         <v>23</v>
       </c>
       <c r="B652">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -12854,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="F652" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
@@ -12862,10 +12853,10 @@
         <v>23</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -12879,19 +12870,16 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C654">
         <v>0</v>
       </c>
       <c r="D654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E654">
         <v>0</v>
-      </c>
-      <c r="F654" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.2">
@@ -12899,16 +12887,19 @@
         <v>23</v>
       </c>
       <c r="B655">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C655">
         <v>1</v>
       </c>
       <c r="D655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E655">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F655" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -12916,10 +12907,10 @@
         <v>23</v>
       </c>
       <c r="B656">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -12933,19 +12924,19 @@
         <v>23</v>
       </c>
       <c r="B657">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F657" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -12953,16 +12944,19 @@
         <v>23</v>
       </c>
       <c r="B658">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C658">
         <v>1</v>
       </c>
       <c r="D658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E658">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F658" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -12970,19 +12964,19 @@
         <v>23</v>
       </c>
       <c r="B659">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
       <c r="D659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E659">
         <v>0</v>
       </c>
       <c r="F659" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
@@ -12990,19 +12984,16 @@
         <v>23</v>
       </c>
       <c r="B660">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E660">
-        <v>1</v>
-      </c>
-      <c r="F660" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -13010,7 +13001,7 @@
         <v>23</v>
       </c>
       <c r="B661">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -13030,16 +13021,19 @@
         <v>23</v>
       </c>
       <c r="B662">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E662">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F662" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
@@ -13047,19 +13041,16 @@
         <v>23</v>
       </c>
       <c r="B663">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E663">
         <v>0</v>
-      </c>
-      <c r="F663" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
@@ -13067,19 +13058,19 @@
         <v>23</v>
       </c>
       <c r="B664">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D664">
         <v>0</v>
       </c>
       <c r="E664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F664" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
@@ -13087,10 +13078,10 @@
         <v>23</v>
       </c>
       <c r="B665">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -13104,19 +13095,16 @@
         <v>23</v>
       </c>
       <c r="B666">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E666">
         <v>0</v>
-      </c>
-      <c r="F666" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
@@ -13124,16 +13112,19 @@
         <v>23</v>
       </c>
       <c r="B667">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E667">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F667" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
@@ -13141,16 +13132,19 @@
         <v>23</v>
       </c>
       <c r="B668">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C668">
         <v>1</v>
       </c>
       <c r="D668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E668">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F668" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
@@ -13158,19 +13152,19 @@
         <v>23</v>
       </c>
       <c r="B669">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D669">
         <v>0</v>
       </c>
       <c r="E669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F669" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
@@ -13178,19 +13172,16 @@
         <v>23</v>
       </c>
       <c r="B670">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E670">
-        <v>1</v>
-      </c>
-      <c r="F670" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
@@ -13198,30 +13189,30 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F671" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B672">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -13232,22 +13223,19 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B673">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D673">
         <v>1</v>
       </c>
       <c r="E673">
-        <v>1</v>
-      </c>
-      <c r="F673" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.2">
@@ -13255,16 +13243,19 @@
         <v>24</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E674">
         <v>0</v>
+      </c>
+      <c r="F674" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
@@ -13272,16 +13263,19 @@
         <v>24</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E675">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F675" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.2">
@@ -13289,19 +13283,16 @@
         <v>24</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
       <c r="D676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E676">
         <v>0</v>
-      </c>
-      <c r="F676" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
@@ -13309,7 +13300,7 @@
         <v>24</v>
       </c>
       <c r="B677">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -13321,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="F677" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
@@ -13329,16 +13320,19 @@
         <v>24</v>
       </c>
       <c r="B678">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C678">
         <v>0</v>
       </c>
       <c r="D678">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E678">
         <v>0</v>
+      </c>
+      <c r="F678" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.2">
@@ -13346,19 +13340,16 @@
         <v>24</v>
       </c>
       <c r="B679">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C679">
         <v>1</v>
       </c>
       <c r="D679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E679">
-        <v>1</v>
-      </c>
-      <c r="F679" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.2">
@@ -13366,19 +13357,16 @@
         <v>24</v>
       </c>
       <c r="B680">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E680">
         <v>0</v>
-      </c>
-      <c r="F680" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
@@ -13386,16 +13374,19 @@
         <v>24</v>
       </c>
       <c r="B681">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E681">
         <v>0</v>
+      </c>
+      <c r="F681" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
@@ -13403,10 +13394,10 @@
         <v>24</v>
       </c>
       <c r="B682">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -13420,16 +13411,16 @@
         <v>24</v>
       </c>
       <c r="B683">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D683">
         <v>0</v>
       </c>
       <c r="E683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F683" t="s">
         <v>7</v>
@@ -13440,10 +13431,10 @@
         <v>24</v>
       </c>
       <c r="B684">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -13457,7 +13448,7 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -13469,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="F685" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
@@ -13477,10 +13468,10 @@
         <v>24</v>
       </c>
       <c r="B686">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -13494,19 +13485,19 @@
         <v>24</v>
       </c>
       <c r="B687">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D687">
         <v>0</v>
       </c>
       <c r="E687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F687" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.2">
@@ -13514,16 +13505,19 @@
         <v>24</v>
       </c>
       <c r="B688">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C688">
         <v>0</v>
       </c>
       <c r="D688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E688">
         <v>0</v>
+      </c>
+      <c r="F688" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
@@ -13531,19 +13525,16 @@
         <v>24</v>
       </c>
       <c r="B689">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
       <c r="D689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E689">
         <v>0</v>
-      </c>
-      <c r="F689" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
@@ -13551,19 +13542,19 @@
         <v>24</v>
       </c>
       <c r="B690">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D690">
         <v>0</v>
       </c>
       <c r="E690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F690" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
@@ -13571,16 +13562,19 @@
         <v>24</v>
       </c>
       <c r="B691">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691">
         <v>1</v>
       </c>
       <c r="E691">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F691" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.2">
@@ -13588,19 +13582,16 @@
         <v>24</v>
       </c>
       <c r="B692">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E692">
-        <v>1</v>
-      </c>
-      <c r="F692" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.2">
@@ -13608,19 +13599,19 @@
         <v>24</v>
       </c>
       <c r="B693">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C693">
         <v>1</v>
       </c>
       <c r="D693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E693">
         <v>1</v>
       </c>
       <c r="F693" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.2">
@@ -13628,10 +13619,10 @@
         <v>24</v>
       </c>
       <c r="B694">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -13645,19 +13636,16 @@
         <v>24</v>
       </c>
       <c r="B695">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D695">
         <v>0</v>
       </c>
       <c r="E695">
-        <v>1</v>
-      </c>
-      <c r="F695" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.2">
@@ -13665,10 +13653,10 @@
         <v>24</v>
       </c>
       <c r="B696">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -13682,13 +13670,13 @@
         <v>24</v>
       </c>
       <c r="B697">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E697">
         <v>0</v>
@@ -13699,16 +13687,19 @@
         <v>24</v>
       </c>
       <c r="B698">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F698" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.2">
@@ -13716,16 +13707,19 @@
         <v>24</v>
       </c>
       <c r="B699">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E699">
         <v>0</v>
+      </c>
+      <c r="F699" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.2">
@@ -13733,19 +13727,19 @@
         <v>24</v>
       </c>
       <c r="B700">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F700" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.2">
@@ -13753,50 +13747,44 @@
         <v>24</v>
       </c>
       <c r="B701">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E701">
         <v>0</v>
-      </c>
-      <c r="F701" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B702">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702">
         <v>1</v>
       </c>
       <c r="E702">
         <v>0</v>
-      </c>
-      <c r="F702" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B703">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -13810,16 +13798,19 @@
         <v>25</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E704">
         <v>0</v>
+      </c>
+      <c r="F704" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.2">
@@ -13827,16 +13818,19 @@
         <v>25</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C705">
         <v>0</v>
       </c>
       <c r="D705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E705">
         <v>0</v>
+      </c>
+      <c r="F705" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.2">
@@ -13844,19 +13838,19 @@
         <v>25</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F706" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.2">
@@ -13864,19 +13858,16 @@
         <v>25</v>
       </c>
       <c r="B707">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C707">
         <v>0</v>
       </c>
       <c r="D707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E707">
         <v>0</v>
-      </c>
-      <c r="F707" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.2">
@@ -13884,19 +13875,19 @@
         <v>25</v>
       </c>
       <c r="B708">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F708" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.2">
@@ -13904,7 +13895,7 @@
         <v>25</v>
       </c>
       <c r="B709">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -13921,19 +13912,19 @@
         <v>25</v>
       </c>
       <c r="B710">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F710" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.2">
@@ -13941,16 +13932,19 @@
         <v>25</v>
       </c>
       <c r="B711">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E711">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F711" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.2">
@@ -13958,19 +13952,19 @@
         <v>25</v>
       </c>
       <c r="B712">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F712" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.2">
@@ -13978,19 +13972,19 @@
         <v>25</v>
       </c>
       <c r="B713">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E713">
         <v>1</v>
       </c>
       <c r="F713" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.2">
@@ -13998,19 +13992,16 @@
         <v>25</v>
       </c>
       <c r="B714">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C714">
         <v>0</v>
       </c>
       <c r="D714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E714">
         <v>0</v>
-      </c>
-      <c r="F714" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.2">
@@ -14018,19 +14009,19 @@
         <v>25</v>
       </c>
       <c r="B715">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F715" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.2">
@@ -14038,10 +14029,10 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -14055,19 +14046,16 @@
         <v>25</v>
       </c>
       <c r="B717">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C717">
         <v>0</v>
       </c>
       <c r="D717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E717">
         <v>0</v>
-      </c>
-      <c r="F717" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.2">
@@ -14075,16 +14063,19 @@
         <v>25</v>
       </c>
       <c r="B718">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C718">
         <v>1</v>
       </c>
       <c r="D718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E718">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F718" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.2">
@@ -14092,16 +14083,19 @@
         <v>25</v>
       </c>
       <c r="B719">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D719">
         <v>1</v>
       </c>
       <c r="E719">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F719" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.2">
@@ -14109,7 +14103,7 @@
         <v>25</v>
       </c>
       <c r="B720">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C720">
         <v>1</v>
@@ -14121,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="F720" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.2">
@@ -14129,19 +14123,16 @@
         <v>25</v>
       </c>
       <c r="B721">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D721">
         <v>1</v>
       </c>
       <c r="E721">
-        <v>1</v>
-      </c>
-      <c r="F721" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.2">
@@ -14149,19 +14140,19 @@
         <v>25</v>
       </c>
       <c r="B722">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D722">
         <v>0</v>
       </c>
       <c r="E722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F722" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.2">
@@ -14169,16 +14160,19 @@
         <v>25</v>
       </c>
       <c r="B723">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D723">
         <v>1</v>
       </c>
       <c r="E723">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F723" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.2">
@@ -14186,7 +14180,7 @@
         <v>25</v>
       </c>
       <c r="B724">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -14196,9 +14190,6 @@
       </c>
       <c r="E724">
         <v>0</v>
-      </c>
-      <c r="F724" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.2">
@@ -14206,19 +14197,16 @@
         <v>25</v>
       </c>
       <c r="B725">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D725">
         <v>1</v>
       </c>
       <c r="E725">
-        <v>1</v>
-      </c>
-      <c r="F725" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.2">
@@ -14226,13 +14214,13 @@
         <v>25</v>
       </c>
       <c r="B726">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C726">
         <v>0</v>
       </c>
       <c r="D726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E726">
         <v>0</v>
@@ -14243,10 +14231,10 @@
         <v>25</v>
       </c>
       <c r="B727">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -14260,53 +14248,19 @@
         <v>25</v>
       </c>
       <c r="B728">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C728">
         <v>0</v>
       </c>
       <c r="D728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E728">
         <v>0</v>
       </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A729">
-        <v>25</v>
-      </c>
-      <c r="B729">
-        <v>26</v>
-      </c>
-      <c r="C729">
-        <v>1</v>
-      </c>
-      <c r="D729">
-        <v>1</v>
-      </c>
-      <c r="E729">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A730">
-        <v>25</v>
-      </c>
-      <c r="B730">
-        <v>27</v>
-      </c>
-      <c r="C730">
-        <v>0</v>
-      </c>
-      <c r="D730">
-        <v>0</v>
-      </c>
-      <c r="E730">
-        <v>0</v>
-      </c>
-      <c r="F730" t="s">
-        <v>81</v>
+      <c r="F728" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/strategic behaviours/Strategic Behaviour 1.xlsx
+++ b/data/strategic behaviours/Strategic Behaviour 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherholland/Documents/A1_Current/PhD/Research Projects/Robots P2/Robots_Analysis_V2/data/strategic behaviours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556C62D-8505-AC4D-99BD-0B78921490C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EEC824-175C-D44C-BB61-763722CAEFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="3140" windowWidth="23260" windowHeight="12580" xr2:uid="{8C6004B3-D138-4E7D-9EA7-73357B9B3BBA}"/>
+    <workbookView xWindow="11300" yWindow="3140" windowWidth="23260" windowHeight="12580" xr2:uid="{8C6004B3-D138-4E7D-9EA7-73357B9B3BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E40A9E2-7EBA-42A2-B309-865F68F66114}">
-  <dimension ref="A1:F728"/>
+  <dimension ref="A1:F729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="G406" sqref="G406"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="F438" sqref="F438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8862,22 +8862,19 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438">
-        <v>1</v>
-      </c>
-      <c r="F438" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -8885,19 +8882,19 @@
         <v>16</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F439" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -8905,16 +8902,19 @@
         <v>16</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E440">
         <v>0</v>
+      </c>
+      <c r="F440" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -8922,10 +8922,10 @@
         <v>16</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -8939,10 +8939,10 @@
         <v>16</v>
       </c>
       <c r="B442">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -8956,19 +8956,16 @@
         <v>16</v>
       </c>
       <c r="B443">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E443">
         <v>0</v>
-      </c>
-      <c r="F443" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -8976,19 +8973,19 @@
         <v>16</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F444" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -8996,7 +8993,7 @@
         <v>16</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -9008,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="F445" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -9016,19 +9013,19 @@
         <v>16</v>
       </c>
       <c r="B446">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F446" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -9036,19 +9033,19 @@
         <v>16</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F447" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -9056,16 +9053,19 @@
         <v>16</v>
       </c>
       <c r="B448">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F448" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -9073,19 +9073,16 @@
         <v>16</v>
       </c>
       <c r="B449">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E449">
-        <v>1</v>
-      </c>
-      <c r="F449" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -9093,19 +9090,19 @@
         <v>16</v>
       </c>
       <c r="B450">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -9113,16 +9110,19 @@
         <v>16</v>
       </c>
       <c r="B451">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E451">
         <v>0</v>
+      </c>
+      <c r="F451" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -9130,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="B452">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -9147,19 +9147,16 @@
         <v>16</v>
       </c>
       <c r="B453">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453">
-        <v>1</v>
-      </c>
-      <c r="F453" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
@@ -9167,16 +9164,19 @@
         <v>16</v>
       </c>
       <c r="B454">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454">
         <v>1</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F454" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -9184,19 +9184,16 @@
         <v>16</v>
       </c>
       <c r="B455">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D455">
         <v>1</v>
       </c>
       <c r="E455">
-        <v>1</v>
-      </c>
-      <c r="F455" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -9204,16 +9201,19 @@
         <v>16</v>
       </c>
       <c r="B456">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D456">
         <v>1</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F456" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
@@ -9221,19 +9221,16 @@
         <v>16</v>
       </c>
       <c r="B457">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E457">
         <v>0</v>
-      </c>
-      <c r="F457" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -9241,19 +9238,19 @@
         <v>16</v>
       </c>
       <c r="B458">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D458">
         <v>0</v>
       </c>
       <c r="E458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F458" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
@@ -9261,19 +9258,19 @@
         <v>16</v>
       </c>
       <c r="B459">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D459">
         <v>0</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F459" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
@@ -9281,19 +9278,19 @@
         <v>16</v>
       </c>
       <c r="B460">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F460" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
@@ -9301,16 +9298,19 @@
         <v>16</v>
       </c>
       <c r="B461">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D461">
         <v>1</v>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F461" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
@@ -9318,19 +9318,16 @@
         <v>16</v>
       </c>
       <c r="B462">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>1</v>
-      </c>
-      <c r="F462" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
@@ -9338,19 +9335,19 @@
         <v>16</v>
       </c>
       <c r="B463">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -9358,16 +9355,19 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464">
         <v>0</v>
+      </c>
+      <c r="F464" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
@@ -9375,36 +9375,36 @@
         <v>16</v>
       </c>
       <c r="B465">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E465">
-        <v>1</v>
-      </c>
-      <c r="F465" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D466">
         <v>1</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F466" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
@@ -9412,19 +9412,16 @@
         <v>17</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D467">
         <v>1</v>
       </c>
       <c r="E467">
-        <v>1</v>
-      </c>
-      <c r="F467" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -9432,16 +9429,19 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F468" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
@@ -9449,19 +9449,16 @@
         <v>17</v>
       </c>
       <c r="B469">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469">
         <v>0</v>
       </c>
       <c r="E469">
-        <v>1</v>
-      </c>
-      <c r="F469" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -9469,16 +9466,19 @@
         <v>17</v>
       </c>
       <c r="B470">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F470" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -9486,13 +9486,13 @@
         <v>17</v>
       </c>
       <c r="B471">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -9503,19 +9503,16 @@
         <v>17</v>
       </c>
       <c r="B472">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472">
-        <v>1</v>
-      </c>
-      <c r="F472" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -9523,19 +9520,19 @@
         <v>17</v>
       </c>
       <c r="B473">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E473">
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -9543,16 +9540,19 @@
         <v>17</v>
       </c>
       <c r="B474">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F474" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -9560,19 +9560,16 @@
         <v>17</v>
       </c>
       <c r="B475">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E475">
         <v>0</v>
-      </c>
-      <c r="F475" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
@@ -9580,19 +9577,19 @@
         <v>17</v>
       </c>
       <c r="B476">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F476" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
@@ -9600,19 +9597,19 @@
         <v>17</v>
       </c>
       <c r="B477">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E477">
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
@@ -9620,16 +9617,19 @@
         <v>17</v>
       </c>
       <c r="B478">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F478" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
@@ -9637,10 +9637,10 @@
         <v>17</v>
       </c>
       <c r="B479">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -9654,19 +9654,16 @@
         <v>17</v>
       </c>
       <c r="B480">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E480">
         <v>0</v>
-      </c>
-      <c r="F480" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -9674,19 +9671,19 @@
         <v>17</v>
       </c>
       <c r="B481">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D481">
         <v>0</v>
       </c>
       <c r="E481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F481" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -9694,16 +9691,19 @@
         <v>17</v>
       </c>
       <c r="B482">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F482" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
@@ -9711,19 +9711,16 @@
         <v>17</v>
       </c>
       <c r="B483">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E483">
-        <v>1</v>
-      </c>
-      <c r="F483" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
@@ -9731,16 +9728,19 @@
         <v>17</v>
       </c>
       <c r="B484">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F484" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
@@ -9748,13 +9748,13 @@
         <v>17</v>
       </c>
       <c r="B485">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>17</v>
       </c>
       <c r="B486">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -9782,19 +9782,16 @@
         <v>17</v>
       </c>
       <c r="B487">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E487">
-        <v>1</v>
-      </c>
-      <c r="F487" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
@@ -9802,16 +9799,19 @@
         <v>17</v>
       </c>
       <c r="B488">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D488">
         <v>1</v>
       </c>
       <c r="E488">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F488" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
@@ -9819,7 +9819,7 @@
         <v>17</v>
       </c>
       <c r="B489">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -9836,19 +9836,16 @@
         <v>17</v>
       </c>
       <c r="B490">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
         <v>0</v>
-      </c>
-      <c r="F490" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
@@ -9856,19 +9853,19 @@
         <v>17</v>
       </c>
       <c r="B491">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F491" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
@@ -9876,19 +9873,19 @@
         <v>17</v>
       </c>
       <c r="B492">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C492">
         <v>1</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E492">
         <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -9896,16 +9893,19 @@
         <v>17</v>
       </c>
       <c r="B493">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D493">
         <v>0</v>
       </c>
       <c r="E493">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F493" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
@@ -9913,13 +9913,13 @@
         <v>17</v>
       </c>
       <c r="B494">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -9930,19 +9930,16 @@
         <v>17</v>
       </c>
       <c r="B495">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E495">
-        <v>1</v>
-      </c>
-      <c r="F495" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
@@ -9950,39 +9947,39 @@
         <v>17</v>
       </c>
       <c r="B496">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F497" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
@@ -9990,16 +9987,19 @@
         <v>18</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D498">
         <v>0</v>
       </c>
       <c r="E498">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F498" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
@@ -10007,19 +10007,16 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C499">
         <v>0</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E499">
         <v>0</v>
-      </c>
-      <c r="F499" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
@@ -10027,19 +10024,19 @@
         <v>18</v>
       </c>
       <c r="B500">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C500">
         <v>0</v>
       </c>
       <c r="D500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E500">
         <v>0</v>
       </c>
       <c r="F500" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
@@ -10047,16 +10044,19 @@
         <v>18</v>
       </c>
       <c r="B501">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C501">
         <v>0</v>
       </c>
       <c r="D501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E501">
         <v>0</v>
+      </c>
+      <c r="F501" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
@@ -10064,10 +10064,10 @@
         <v>18</v>
       </c>
       <c r="B502">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -10081,19 +10081,16 @@
         <v>18</v>
       </c>
       <c r="B503">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C503">
         <v>1</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E503">
-        <v>1</v>
-      </c>
-      <c r="F503" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -10101,19 +10098,19 @@
         <v>18</v>
       </c>
       <c r="B504">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D504">
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F504" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -10121,16 +10118,19 @@
         <v>18</v>
       </c>
       <c r="B505">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C505">
         <v>0</v>
       </c>
       <c r="D505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E505">
         <v>0</v>
+      </c>
+      <c r="F505" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -10138,19 +10138,16 @@
         <v>18</v>
       </c>
       <c r="B506">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D506">
         <v>1</v>
       </c>
       <c r="E506">
-        <v>1</v>
-      </c>
-      <c r="F506" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -10158,19 +10155,19 @@
         <v>18</v>
       </c>
       <c r="B507">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C507">
         <v>1</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E507">
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -10178,19 +10175,19 @@
         <v>18</v>
       </c>
       <c r="B508">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C508">
         <v>1</v>
       </c>
       <c r="D508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F508" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -10198,16 +10195,19 @@
         <v>18</v>
       </c>
       <c r="B509">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D509">
         <v>1</v>
       </c>
       <c r="E509">
         <v>0</v>
+      </c>
+      <c r="F509" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -10215,19 +10215,16 @@
         <v>18</v>
       </c>
       <c r="B510">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E510">
-        <v>1</v>
-      </c>
-      <c r="F510" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -10235,19 +10232,19 @@
         <v>18</v>
       </c>
       <c r="B511">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D511">
         <v>0</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -10255,19 +10252,19 @@
         <v>18</v>
       </c>
       <c r="B512">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D512">
         <v>0</v>
       </c>
       <c r="E512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F512" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -10275,19 +10272,19 @@
         <v>18</v>
       </c>
       <c r="B513">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F513" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -10295,10 +10292,10 @@
         <v>18</v>
       </c>
       <c r="B514">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -10307,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="F514" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -10315,19 +10312,19 @@
         <v>18</v>
       </c>
       <c r="B515">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515">
         <v>0</v>
       </c>
       <c r="F515" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -10335,16 +10332,19 @@
         <v>18</v>
       </c>
       <c r="B516">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E516">
         <v>0</v>
+      </c>
+      <c r="F516" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -10352,10 +10352,10 @@
         <v>18</v>
       </c>
       <c r="B517">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -10369,19 +10369,16 @@
         <v>18</v>
       </c>
       <c r="B518">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C518">
         <v>1</v>
       </c>
       <c r="D518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E518">
-        <v>1</v>
-      </c>
-      <c r="F518" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -10389,19 +10386,19 @@
         <v>18</v>
       </c>
       <c r="B519">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D519">
         <v>0</v>
       </c>
       <c r="E519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F519" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -10409,16 +10406,19 @@
         <v>18</v>
       </c>
       <c r="B520">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E520">
         <v>0</v>
+      </c>
+      <c r="F520" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -10426,19 +10426,16 @@
         <v>18</v>
       </c>
       <c r="B521">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>1</v>
-      </c>
-      <c r="F521" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -10446,16 +10443,19 @@
         <v>18</v>
       </c>
       <c r="B522">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F522" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
@@ -10463,19 +10463,16 @@
         <v>18</v>
       </c>
       <c r="B523">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523">
-        <v>1</v>
-      </c>
-      <c r="F523" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
@@ -10483,16 +10480,19 @@
         <v>18</v>
       </c>
       <c r="B524">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D524">
         <v>0</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F524" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -10500,19 +10500,16 @@
         <v>18</v>
       </c>
       <c r="B525">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C525">
         <v>0</v>
       </c>
       <c r="D525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E525">
         <v>0</v>
-      </c>
-      <c r="F525" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -10520,36 +10517,36 @@
         <v>18</v>
       </c>
       <c r="B526">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D526">
         <v>1</v>
       </c>
       <c r="E526">
         <v>0</v>
+      </c>
+      <c r="F526" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C527">
         <v>1</v>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>1</v>
-      </c>
-      <c r="F527" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -10557,16 +10554,19 @@
         <v>19</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F528" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
@@ -10574,19 +10574,16 @@
         <v>19</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C529">
         <v>0</v>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E529">
         <v>0</v>
-      </c>
-      <c r="F529" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -10594,19 +10591,19 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F530" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -10614,16 +10611,19 @@
         <v>19</v>
       </c>
       <c r="B531">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D531">
         <v>1</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F531" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -10631,19 +10631,16 @@
         <v>19</v>
       </c>
       <c r="B532">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532">
-        <v>1</v>
-      </c>
-      <c r="F532" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -10651,16 +10648,19 @@
         <v>19</v>
       </c>
       <c r="B533">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D533">
         <v>0</v>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F533" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -10668,19 +10668,16 @@
         <v>19</v>
       </c>
       <c r="B534">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>1</v>
-      </c>
-      <c r="F534" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -10688,16 +10685,19 @@
         <v>19</v>
       </c>
       <c r="B535">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D535">
         <v>1</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F535" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
@@ -10705,19 +10705,16 @@
         <v>19</v>
       </c>
       <c r="B536">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C536">
         <v>0</v>
       </c>
       <c r="D536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E536">
         <v>0</v>
-      </c>
-      <c r="F536" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -10725,19 +10722,19 @@
         <v>19</v>
       </c>
       <c r="B537">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D537">
         <v>0</v>
       </c>
       <c r="E537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F537" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -10745,16 +10742,19 @@
         <v>19</v>
       </c>
       <c r="B538">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F538" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -10762,19 +10762,16 @@
         <v>19</v>
       </c>
       <c r="B539">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D539">
         <v>1</v>
       </c>
       <c r="E539">
-        <v>1</v>
-      </c>
-      <c r="F539" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -10782,19 +10779,19 @@
         <v>19</v>
       </c>
       <c r="B540">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C540">
         <v>1</v>
       </c>
       <c r="D540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E540">
         <v>1</v>
       </c>
       <c r="F540" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -10802,16 +10799,19 @@
         <v>19</v>
       </c>
       <c r="B541">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D541">
         <v>0</v>
       </c>
       <c r="E541">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F541" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -10819,19 +10819,16 @@
         <v>19</v>
       </c>
       <c r="B542">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>1</v>
-      </c>
-      <c r="F542" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -10839,16 +10836,19 @@
         <v>19</v>
       </c>
       <c r="B543">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E543">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -10856,13 +10856,13 @@
         <v>19</v>
       </c>
       <c r="B544">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C544">
         <v>0</v>
       </c>
       <c r="D544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E544">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>19</v>
       </c>
       <c r="B545">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -10890,13 +10890,13 @@
         <v>19</v>
       </c>
       <c r="B546">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
       <c r="D546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E546">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E547">
         <v>0</v>
@@ -10924,10 +10924,10 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -10941,19 +10941,16 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C549">
         <v>0</v>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E549">
         <v>0</v>
-      </c>
-      <c r="F549" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -10961,7 +10958,7 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -10981,16 +10978,19 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E551">
         <v>0</v>
+      </c>
+      <c r="F551" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
@@ -10998,36 +10998,36 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D552">
         <v>1</v>
       </c>
       <c r="E552">
-        <v>1</v>
-      </c>
-      <c r="F552" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D553">
         <v>1</v>
       </c>
       <c r="E553">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F553" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
@@ -11035,19 +11035,16 @@
         <v>20</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554">
         <v>0</v>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E554">
         <v>0</v>
-      </c>
-      <c r="F554" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
@@ -11055,16 +11052,19 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E555">
         <v>0</v>
+      </c>
+      <c r="F555" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.2">
@@ -11072,7 +11072,7 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -11089,10 +11089,10 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -11106,19 +11106,16 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C558">
         <v>0</v>
       </c>
       <c r="D558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E558">
         <v>0</v>
-      </c>
-      <c r="F558" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
@@ -11126,19 +11123,19 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F559" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
@@ -11146,19 +11143,19 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F560" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
@@ -11166,16 +11163,19 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C561">
         <v>0</v>
       </c>
       <c r="D561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E561">
         <v>0</v>
+      </c>
+      <c r="F561" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
@@ -11183,19 +11183,16 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E562">
-        <v>1</v>
-      </c>
-      <c r="F562" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
@@ -11203,16 +11200,19 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C563">
         <v>1</v>
       </c>
       <c r="D563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E563">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F563" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
@@ -11220,10 +11220,10 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D564">
         <v>1</v>
@@ -11237,19 +11237,16 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C565">
         <v>0</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E565">
         <v>0</v>
-      </c>
-      <c r="F565" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
@@ -11257,19 +11254,19 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F566" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.2">
@@ -11277,16 +11274,19 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D567">
         <v>1</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F567" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
@@ -11294,13 +11294,13 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C568">
         <v>0</v>
       </c>
       <c r="D568">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E568">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C569">
         <v>0</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569">
         <v>0</v>
@@ -11328,19 +11328,16 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C570">
         <v>0</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E570">
         <v>0</v>
-      </c>
-      <c r="F570" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
@@ -11348,16 +11345,19 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E571">
         <v>0</v>
+      </c>
+      <c r="F571" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.2">
@@ -11365,10 +11365,10 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -11382,10 +11382,10 @@
         <v>20</v>
       </c>
       <c r="B573">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D573">
         <v>1</v>
@@ -11399,19 +11399,16 @@
         <v>20</v>
       </c>
       <c r="B574">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E574">
         <v>0</v>
-      </c>
-      <c r="F574" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.2">
@@ -11419,19 +11416,19 @@
         <v>20</v>
       </c>
       <c r="B575">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575">
         <v>0</v>
       </c>
       <c r="E575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F575" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
@@ -11439,19 +11436,19 @@
         <v>20</v>
       </c>
       <c r="B576">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F576" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
@@ -11459,24 +11456,27 @@
         <v>20</v>
       </c>
       <c r="B577">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D577">
         <v>1</v>
       </c>
       <c r="E577">
         <v>0</v>
+      </c>
+      <c r="F577" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -11493,13 +11493,13 @@
         <v>21</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E579">
         <v>0</v>
@@ -11510,19 +11510,16 @@
         <v>21</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D580">
         <v>0</v>
       </c>
       <c r="E580">
-        <v>1</v>
-      </c>
-      <c r="F580" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
@@ -11530,19 +11527,19 @@
         <v>21</v>
       </c>
       <c r="B581">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D581">
         <v>0</v>
       </c>
       <c r="E581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F581" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
@@ -11550,16 +11547,19 @@
         <v>21</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C582">
         <v>0</v>
       </c>
       <c r="D582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E582">
         <v>0</v>
+      </c>
+      <c r="F582" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
@@ -11567,19 +11567,16 @@
         <v>21</v>
       </c>
       <c r="B583">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E583">
-        <v>1</v>
-      </c>
-      <c r="F583" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -11587,16 +11584,19 @@
         <v>21</v>
       </c>
       <c r="B584">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C584">
         <v>1</v>
       </c>
       <c r="D584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E584">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
@@ -11604,7 +11604,7 @@
         <v>21</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -11613,10 +11613,7 @@
         <v>1</v>
       </c>
       <c r="E585">
-        <v>1</v>
-      </c>
-      <c r="F585" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -11624,13 +11621,13 @@
         <v>21</v>
       </c>
       <c r="B586">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C586">
         <v>1</v>
       </c>
       <c r="D586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E586">
         <v>1</v>
@@ -11644,16 +11641,19 @@
         <v>21</v>
       </c>
       <c r="B587">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D587">
         <v>0</v>
       </c>
       <c r="E587">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -11661,13 +11661,13 @@
         <v>21</v>
       </c>
       <c r="B588">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C588">
         <v>0</v>
       </c>
       <c r="D588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E588">
         <v>0</v>
@@ -11678,10 +11678,10 @@
         <v>21</v>
       </c>
       <c r="B589">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -11695,10 +11695,10 @@
         <v>21</v>
       </c>
       <c r="B590">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C590">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D590">
         <v>1</v>
@@ -11712,13 +11712,13 @@
         <v>21</v>
       </c>
       <c r="B591">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C591">
         <v>0</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -11729,19 +11729,16 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D592">
         <v>0</v>
       </c>
       <c r="E592">
-        <v>1</v>
-      </c>
-      <c r="F592" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -11749,7 +11746,7 @@
         <v>21</v>
       </c>
       <c r="B593">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -11761,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="F593" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -11769,16 +11766,19 @@
         <v>21</v>
       </c>
       <c r="B594">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C594">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D594">
         <v>0</v>
       </c>
       <c r="E594">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F594" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -11786,13 +11786,13 @@
         <v>21</v>
       </c>
       <c r="B595">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C595">
         <v>0</v>
       </c>
       <c r="D595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E595">
         <v>0</v>
@@ -11803,10 +11803,10 @@
         <v>21</v>
       </c>
       <c r="B596">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -11820,19 +11820,16 @@
         <v>21</v>
       </c>
       <c r="B597">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E597">
         <v>0</v>
-      </c>
-      <c r="F597" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -11840,16 +11837,19 @@
         <v>21</v>
       </c>
       <c r="B598">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C598">
         <v>0</v>
       </c>
       <c r="D598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E598">
         <v>0</v>
+      </c>
+      <c r="F598" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -11857,19 +11857,16 @@
         <v>21</v>
       </c>
       <c r="B599">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E599">
-        <v>1</v>
-      </c>
-      <c r="F599" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
@@ -11877,13 +11874,13 @@
         <v>21</v>
       </c>
       <c r="B600">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C600">
         <v>1</v>
       </c>
       <c r="D600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E600">
         <v>1</v>
@@ -11897,13 +11894,13 @@
         <v>21</v>
       </c>
       <c r="B601">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C601">
         <v>1</v>
       </c>
       <c r="D601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E601">
         <v>1</v>
@@ -11917,16 +11914,19 @@
         <v>21</v>
       </c>
       <c r="B602">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C602">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D602">
         <v>0</v>
       </c>
       <c r="E602">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F602" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -11934,13 +11934,13 @@
         <v>21</v>
       </c>
       <c r="B603">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C603">
         <v>0</v>
       </c>
       <c r="D603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E603">
         <v>0</v>
@@ -11951,10 +11951,10 @@
         <v>21</v>
       </c>
       <c r="B604">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D604">
         <v>1</v>
@@ -11968,10 +11968,10 @@
         <v>21</v>
       </c>
       <c r="B605">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D605">
         <v>1</v>
@@ -11985,19 +11985,16 @@
         <v>21</v>
       </c>
       <c r="B606">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E606">
-        <v>1</v>
-      </c>
-      <c r="F606" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
@@ -12005,16 +12002,19 @@
         <v>21</v>
       </c>
       <c r="B607">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D607">
         <v>0</v>
       </c>
       <c r="E607">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F607" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
@@ -12022,39 +12022,36 @@
         <v>21</v>
       </c>
       <c r="B608">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E608">
-        <v>1</v>
-      </c>
-      <c r="F608" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C609">
         <v>1</v>
       </c>
       <c r="D609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E609">
         <v>1</v>
       </c>
       <c r="F609" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -12062,16 +12059,19 @@
         <v>22</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E610">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F610" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
@@ -12079,19 +12079,16 @@
         <v>22</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C611">
         <v>0</v>
       </c>
       <c r="D611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E611">
         <v>0</v>
-      </c>
-      <c r="F611" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -12099,16 +12096,19 @@
         <v>22</v>
       </c>
       <c r="B612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E612">
         <v>0</v>
+      </c>
+      <c r="F612" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -12116,10 +12116,10 @@
         <v>22</v>
       </c>
       <c r="B613">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D613">
         <v>1</v>
@@ -12133,19 +12133,16 @@
         <v>22</v>
       </c>
       <c r="B614">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D614">
         <v>1</v>
       </c>
       <c r="E614">
-        <v>1</v>
-      </c>
-      <c r="F614" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -12153,19 +12150,19 @@
         <v>22</v>
       </c>
       <c r="B615">
+        <v>6</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="F615" t="s">
         <v>7</v>
-      </c>
-      <c r="C615">
-        <v>0</v>
-      </c>
-      <c r="D615">
-        <v>0</v>
-      </c>
-      <c r="E615">
-        <v>0</v>
-      </c>
-      <c r="F615" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -12173,19 +12170,19 @@
         <v>22</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D616">
         <v>0</v>
       </c>
       <c r="E616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F616" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
@@ -12193,16 +12190,19 @@
         <v>22</v>
       </c>
       <c r="B617">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D617">
         <v>0</v>
       </c>
       <c r="E617">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F617" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -12210,13 +12210,13 @@
         <v>22</v>
       </c>
       <c r="B618">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C618">
         <v>0</v>
       </c>
       <c r="D618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E618">
         <v>0</v>
@@ -12227,19 +12227,16 @@
         <v>22</v>
       </c>
       <c r="B619">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D619">
         <v>1</v>
       </c>
       <c r="E619">
-        <v>1</v>
-      </c>
-      <c r="F619" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
@@ -12247,19 +12244,19 @@
         <v>22</v>
       </c>
       <c r="B620">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C620">
         <v>1</v>
       </c>
       <c r="D620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E620">
         <v>1</v>
       </c>
       <c r="F620" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -12267,7 +12264,7 @@
         <v>22</v>
       </c>
       <c r="B621">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -12279,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="F621" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
@@ -12287,16 +12284,19 @@
         <v>22</v>
       </c>
       <c r="B622">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E622">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F622" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -12304,13 +12304,13 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E623">
         <v>0</v>
@@ -12321,13 +12321,13 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C624">
         <v>0</v>
       </c>
       <c r="D624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E624">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -12355,19 +12355,16 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
       <c r="D626">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E626">
         <v>0</v>
-      </c>
-      <c r="F626" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
@@ -12375,19 +12372,19 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F627" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
@@ -12395,19 +12392,19 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C628">
         <v>1</v>
       </c>
       <c r="D628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E628">
         <v>1</v>
       </c>
       <c r="F628" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -12415,16 +12412,19 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D629">
         <v>0</v>
       </c>
       <c r="E629">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F629" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -12432,13 +12432,13 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C630">
         <v>0</v>
       </c>
       <c r="D630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E630">
         <v>0</v>
@@ -12449,19 +12449,16 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E631">
-        <v>1</v>
-      </c>
-      <c r="F631" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
@@ -12469,16 +12466,19 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C632">
         <v>1</v>
       </c>
       <c r="D632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E632">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F632" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
@@ -12486,13 +12486,13 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E633">
         <v>0</v>
@@ -12503,13 +12503,13 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C634">
         <v>0</v>
       </c>
       <c r="D634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E634">
         <v>0</v>
@@ -12520,10 +12520,10 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -12537,19 +12537,16 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C636">
         <v>1</v>
       </c>
       <c r="D636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E636">
-        <v>1</v>
-      </c>
-      <c r="F636" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -12557,16 +12554,19 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E637">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F637" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -12574,10 +12574,10 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -12591,13 +12591,13 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E639">
         <v>0</v>
@@ -12608,10 +12608,10 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -12622,16 +12622,16 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E641">
         <v>0</v>
@@ -12642,19 +12642,16 @@
         <v>23</v>
       </c>
       <c r="B642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C642">
         <v>0</v>
       </c>
       <c r="D642">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E642">
         <v>0</v>
-      </c>
-      <c r="F642" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -12662,16 +12659,16 @@
         <v>23</v>
       </c>
       <c r="B643">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D643">
         <v>0</v>
       </c>
       <c r="E643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F643" t="s">
         <v>7</v>
@@ -12682,13 +12679,13 @@
         <v>23</v>
       </c>
       <c r="B644">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C644">
         <v>1</v>
       </c>
       <c r="D644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E644">
         <v>1</v>
@@ -12702,7 +12699,7 @@
         <v>23</v>
       </c>
       <c r="B645">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -12714,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="F645" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
@@ -12722,19 +12719,19 @@
         <v>23</v>
       </c>
       <c r="B646">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F646" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
@@ -12742,16 +12739,19 @@
         <v>23</v>
       </c>
       <c r="B647">
+        <v>6</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647" t="s">
         <v>7</v>
-      </c>
-      <c r="C647">
-        <v>0</v>
-      </c>
-      <c r="D647">
-        <v>1</v>
-      </c>
-      <c r="E647">
-        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
@@ -12759,19 +12759,16 @@
         <v>23</v>
       </c>
       <c r="B648">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E648">
-        <v>1</v>
-      </c>
-      <c r="F648" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
@@ -12779,16 +12776,19 @@
         <v>23</v>
       </c>
       <c r="B649">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C649">
         <v>1</v>
       </c>
       <c r="D649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E649">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F649" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
@@ -12796,19 +12796,16 @@
         <v>23</v>
       </c>
       <c r="B650">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E650">
         <v>0</v>
-      </c>
-      <c r="F650" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
@@ -12816,16 +12813,19 @@
         <v>23</v>
       </c>
       <c r="B651">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C651">
         <v>0</v>
       </c>
       <c r="D651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E651">
         <v>0</v>
+      </c>
+      <c r="F651" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
@@ -12833,19 +12833,16 @@
         <v>23</v>
       </c>
       <c r="B652">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C652">
         <v>0</v>
       </c>
       <c r="D652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E652">
         <v>0</v>
-      </c>
-      <c r="F652" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
@@ -12853,16 +12850,19 @@
         <v>23</v>
       </c>
       <c r="B653">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E653">
         <v>0</v>
+      </c>
+      <c r="F653" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
@@ -12870,10 +12870,10 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -12887,19 +12887,16 @@
         <v>23</v>
       </c>
       <c r="B655">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E655">
-        <v>1</v>
-      </c>
-      <c r="F655" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
@@ -12907,16 +12904,19 @@
         <v>23</v>
       </c>
       <c r="B656">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C656">
         <v>1</v>
       </c>
       <c r="D656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E656">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F656" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
@@ -12924,19 +12924,16 @@
         <v>23</v>
       </c>
       <c r="B657">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D657">
         <v>1</v>
       </c>
       <c r="E657">
         <v>0</v>
-      </c>
-      <c r="F657" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
@@ -12944,19 +12941,19 @@
         <v>23</v>
       </c>
       <c r="B658">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D658">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F658" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
@@ -12964,19 +12961,19 @@
         <v>23</v>
       </c>
       <c r="B659">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D659">
         <v>0</v>
       </c>
       <c r="E659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F659" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
@@ -12984,16 +12981,19 @@
         <v>23</v>
       </c>
       <c r="B660">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
       <c r="D660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E660">
         <v>0</v>
+      </c>
+      <c r="F660" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
@@ -13001,19 +13001,16 @@
         <v>23</v>
       </c>
       <c r="B661">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C661">
         <v>0</v>
       </c>
       <c r="D661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E661">
         <v>0</v>
-      </c>
-      <c r="F661" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
@@ -13021,19 +13018,19 @@
         <v>23</v>
       </c>
       <c r="B662">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D662">
         <v>0</v>
       </c>
       <c r="E662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F662" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
@@ -13041,16 +13038,19 @@
         <v>23</v>
       </c>
       <c r="B663">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C663">
         <v>1</v>
       </c>
       <c r="D663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E663">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F663" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
@@ -13058,19 +13058,16 @@
         <v>23</v>
       </c>
       <c r="B664">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E664">
         <v>0</v>
-      </c>
-      <c r="F664" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
@@ -13078,16 +13075,19 @@
         <v>23</v>
       </c>
       <c r="B665">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C665">
         <v>0</v>
       </c>
       <c r="D665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E665">
         <v>0</v>
+      </c>
+      <c r="F665" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
@@ -13095,10 +13095,10 @@
         <v>23</v>
       </c>
       <c r="B666">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C666">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -13112,19 +13112,16 @@
         <v>23</v>
       </c>
       <c r="B667">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C667">
         <v>1</v>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E667">
-        <v>1</v>
-      </c>
-      <c r="F667" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
@@ -13132,7 +13129,7 @@
         <v>23</v>
       </c>
       <c r="B668">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -13144,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="F668" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
@@ -13152,19 +13149,19 @@
         <v>23</v>
       </c>
       <c r="B669">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D669">
         <v>0</v>
       </c>
       <c r="E669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F669" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
@@ -13172,16 +13169,19 @@
         <v>23</v>
       </c>
       <c r="B670">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C670">
         <v>0</v>
       </c>
       <c r="D670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E670">
         <v>0</v>
+      </c>
+      <c r="F670" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
@@ -13189,27 +13189,24 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D671">
         <v>1</v>
       </c>
       <c r="E671">
-        <v>1</v>
-      </c>
-      <c r="F671" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -13218,7 +13215,10 @@
         <v>1</v>
       </c>
       <c r="E672">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F672" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.2">
@@ -13226,10 +13226,10 @@
         <v>24</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -13243,19 +13243,16 @@
         <v>24</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C674">
         <v>0</v>
       </c>
       <c r="D674">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E674">
         <v>0</v>
-      </c>
-      <c r="F674" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
@@ -13263,19 +13260,19 @@
         <v>24</v>
       </c>
       <c r="B675">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D675">
         <v>0</v>
       </c>
       <c r="E675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F675" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.2">
@@ -13283,16 +13280,19 @@
         <v>24</v>
       </c>
       <c r="B676">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E676">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F676" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
@@ -13300,19 +13300,16 @@
         <v>24</v>
       </c>
       <c r="B677">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D677">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E677">
-        <v>1</v>
-      </c>
-      <c r="F677" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
@@ -13320,19 +13317,19 @@
         <v>24</v>
       </c>
       <c r="B678">
+        <v>6</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+      <c r="D678">
+        <v>0</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+      <c r="F678" t="s">
         <v>7</v>
-      </c>
-      <c r="C678">
-        <v>0</v>
-      </c>
-      <c r="D678">
-        <v>0</v>
-      </c>
-      <c r="E678">
-        <v>0</v>
-      </c>
-      <c r="F678" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.2">
@@ -13340,16 +13337,19 @@
         <v>24</v>
       </c>
       <c r="B679">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E679">
         <v>0</v>
+      </c>
+      <c r="F679" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.2">
@@ -13357,7 +13357,7 @@
         <v>24</v>
       </c>
       <c r="B680">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C680">
         <v>1</v>
@@ -13374,19 +13374,16 @@
         <v>24</v>
       </c>
       <c r="B681">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E681">
         <v>0</v>
-      </c>
-      <c r="F681" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
@@ -13394,16 +13391,19 @@
         <v>24</v>
       </c>
       <c r="B682">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C682">
         <v>0</v>
       </c>
       <c r="D682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E682">
         <v>0</v>
+      </c>
+      <c r="F682" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.2">
@@ -13411,19 +13411,16 @@
         <v>24</v>
       </c>
       <c r="B683">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E683">
-        <v>1</v>
-      </c>
-      <c r="F683" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.2">
@@ -13431,16 +13428,19 @@
         <v>24</v>
       </c>
       <c r="B684">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C684">
         <v>1</v>
       </c>
       <c r="D684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E684">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F684" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.2">
@@ -13448,19 +13448,16 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C685">
         <v>1</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E685">
-        <v>1</v>
-      </c>
-      <c r="F685" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
@@ -13468,16 +13465,19 @@
         <v>24</v>
       </c>
       <c r="B686">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E686">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.2">
@@ -13485,19 +13485,16 @@
         <v>24</v>
       </c>
       <c r="B687">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C687">
         <v>0</v>
       </c>
       <c r="D687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E687">
         <v>0</v>
-      </c>
-      <c r="F687" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.2">
@@ -13505,7 +13502,7 @@
         <v>24</v>
       </c>
       <c r="B688">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C688">
         <v>0</v>
@@ -13517,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="F688" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
@@ -13525,16 +13522,19 @@
         <v>24</v>
       </c>
       <c r="B689">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
       <c r="D689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E689">
         <v>0</v>
+      </c>
+      <c r="F689" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
@@ -13542,19 +13542,16 @@
         <v>24</v>
       </c>
       <c r="B690">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E690">
-        <v>1</v>
-      </c>
-      <c r="F690" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
@@ -13562,19 +13559,19 @@
         <v>24</v>
       </c>
       <c r="B691">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C691">
         <v>1</v>
       </c>
       <c r="D691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E691">
         <v>1</v>
       </c>
       <c r="F691" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.2">
@@ -13582,16 +13579,19 @@
         <v>24</v>
       </c>
       <c r="B692">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D692">
         <v>1</v>
       </c>
       <c r="E692">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F692" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.2">
@@ -13599,19 +13599,16 @@
         <v>24</v>
       </c>
       <c r="B693">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E693">
-        <v>1</v>
-      </c>
-      <c r="F693" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.2">
@@ -13619,16 +13616,19 @@
         <v>24</v>
       </c>
       <c r="B694">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C694">
         <v>1</v>
       </c>
       <c r="D694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E694">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F694" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.2">
@@ -13636,13 +13636,13 @@
         <v>24</v>
       </c>
       <c r="B695">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E695">
         <v>0</v>
@@ -13653,13 +13653,13 @@
         <v>24</v>
       </c>
       <c r="B696">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C696">
         <v>0</v>
       </c>
       <c r="D696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E696">
         <v>0</v>
@@ -13670,10 +13670,10 @@
         <v>24</v>
       </c>
       <c r="B697">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -13687,19 +13687,16 @@
         <v>24</v>
       </c>
       <c r="B698">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C698">
         <v>1</v>
       </c>
       <c r="D698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E698">
-        <v>1</v>
-      </c>
-      <c r="F698" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.2">
@@ -13707,19 +13704,19 @@
         <v>24</v>
       </c>
       <c r="B699">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D699">
         <v>0</v>
       </c>
       <c r="E699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F699" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.2">
@@ -13727,13 +13724,13 @@
         <v>24</v>
       </c>
       <c r="B700">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
       <c r="D700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E700">
         <v>0</v>
@@ -13747,24 +13744,27 @@
         <v>24</v>
       </c>
       <c r="B701">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D701">
         <v>1</v>
       </c>
       <c r="E701">
         <v>0</v>
+      </c>
+      <c r="F701" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C702">
         <v>1</v>
@@ -13781,10 +13781,10 @@
         <v>25</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C703">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -13798,19 +13798,16 @@
         <v>25</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C704">
         <v>0</v>
       </c>
       <c r="D704">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E704">
         <v>0</v>
-      </c>
-      <c r="F704" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.2">
@@ -13818,7 +13815,7 @@
         <v>25</v>
       </c>
       <c r="B705">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -13830,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="F705" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.2">
@@ -13838,19 +13835,19 @@
         <v>25</v>
       </c>
       <c r="B706">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F706" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.2">
@@ -13858,16 +13855,19 @@
         <v>25</v>
       </c>
       <c r="B707">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D707">
         <v>1</v>
       </c>
       <c r="E707">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F707" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.2">
@@ -13875,19 +13875,16 @@
         <v>25</v>
       </c>
       <c r="B708">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C708">
         <v>0</v>
       </c>
       <c r="D708">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E708">
         <v>0</v>
-      </c>
-      <c r="F708" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.2">
@@ -13895,16 +13892,19 @@
         <v>25</v>
       </c>
       <c r="B709">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C709">
         <v>0</v>
       </c>
       <c r="D709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E709">
         <v>0</v>
+      </c>
+      <c r="F709" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.2">
@@ -13912,19 +13912,16 @@
         <v>25</v>
       </c>
       <c r="B710">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C710">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D710">
         <v>1</v>
       </c>
       <c r="E710">
-        <v>1</v>
-      </c>
-      <c r="F710" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.2">
@@ -13932,19 +13929,19 @@
         <v>25</v>
       </c>
       <c r="B711">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C711">
         <v>1</v>
       </c>
       <c r="D711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E711">
         <v>1</v>
       </c>
       <c r="F711" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.2">
@@ -13952,19 +13949,19 @@
         <v>25</v>
       </c>
       <c r="B712">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D712">
         <v>0</v>
       </c>
       <c r="E712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F712" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.2">
@@ -13972,19 +13969,19 @@
         <v>25</v>
       </c>
       <c r="B713">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F713" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.2">
@@ -13992,16 +13989,19 @@
         <v>25</v>
       </c>
       <c r="B714">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D714">
         <v>1</v>
       </c>
       <c r="E714">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F714" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.2">
@@ -14009,19 +14009,16 @@
         <v>25</v>
       </c>
       <c r="B715">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C715">
         <v>0</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E715">
         <v>0</v>
-      </c>
-      <c r="F715" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.2">
@@ -14029,16 +14026,19 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E716">
         <v>0</v>
+      </c>
+      <c r="F716" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.2">
@@ -14046,10 +14046,10 @@
         <v>25</v>
       </c>
       <c r="B717">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -14063,19 +14063,16 @@
         <v>25</v>
       </c>
       <c r="B718">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E718">
-        <v>1</v>
-      </c>
-      <c r="F718" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.2">
@@ -14083,19 +14080,19 @@
         <v>25</v>
       </c>
       <c r="B719">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C719">
         <v>1</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E719">
         <v>1</v>
       </c>
       <c r="F719" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.2">
@@ -14103,19 +14100,19 @@
         <v>25</v>
       </c>
       <c r="B720">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C720">
         <v>1</v>
       </c>
       <c r="D720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E720">
         <v>1</v>
       </c>
       <c r="F720" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.2">
@@ -14123,16 +14120,19 @@
         <v>25</v>
       </c>
       <c r="B721">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E721">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F721" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.2">
@@ -14140,19 +14140,16 @@
         <v>25</v>
       </c>
       <c r="B722">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C722">
         <v>0</v>
       </c>
       <c r="D722">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E722">
         <v>0</v>
-      </c>
-      <c r="F722" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.2">
@@ -14160,19 +14157,19 @@
         <v>25</v>
       </c>
       <c r="B723">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F723" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.2">
@@ -14180,16 +14177,19 @@
         <v>25</v>
       </c>
       <c r="B724">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E724">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F724" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.2">
@@ -14197,13 +14197,13 @@
         <v>25</v>
       </c>
       <c r="B725">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C725">
         <v>0</v>
       </c>
       <c r="D725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E725">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>25</v>
       </c>
       <c r="B726">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C726">
         <v>0</v>
@@ -14231,10 +14231,10 @@
         <v>25</v>
       </c>
       <c r="B727">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -14248,18 +14248,35 @@
         <v>25</v>
       </c>
       <c r="B728">
+        <v>26</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>25</v>
+      </c>
+      <c r="B729">
         <v>27</v>
       </c>
-      <c r="C728">
-        <v>0</v>
-      </c>
-      <c r="D728">
-        <v>0</v>
-      </c>
-      <c r="E728">
-        <v>0</v>
-      </c>
-      <c r="F728" t="s">
+      <c r="C729">
+        <v>0</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+      <c r="F729" t="s">
         <v>80</v>
       </c>
     </row>
